--- a/data/data_hawker.xlsx
+++ b/data/data_hawker.xlsx
@@ -802,6 +802,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="4" max="4" width="36.29"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
